--- a/data/trans_dic/P14B23-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P14B23-Provincia-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01392357394669995</v>
+        <v>0.01392277592556707</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01100383214503552</v>
+        <v>0.01158456455619282</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.005219360624029503</v>
+        <v>0.005187713718198844</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05879140451524641</v>
+        <v>0.06513927145775696</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06986771154599161</v>
+        <v>0.07282228142928382</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02916161735525992</v>
+        <v>0.03092532997206103</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04421383985204604</v>
+        <v>0.04172085355929072</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04707842254492463</v>
+        <v>0.04734821404270479</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01964056245787723</v>
+        <v>0.02084437092904916</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05647978285518818</v>
+        <v>0.05519499622063506</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05154926061094784</v>
+        <v>0.05053515710889132</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03098370701687777</v>
+        <v>0.03081267217966682</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1338611670531645</v>
+        <v>0.1384987643077866</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1505040235281716</v>
+        <v>0.150931993898886</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06358133355988148</v>
+        <v>0.06399600300196877</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08449041387538885</v>
+        <v>0.08353114473893886</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09028265280625646</v>
+        <v>0.09086746274865534</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03988748529246637</v>
+        <v>0.04089009025580839</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.02731133910185118</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.04013618519202989</v>
+        <v>0.04013618519202988</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.104252980604145</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01737988057141475</v>
+        <v>0.01633073057189747</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0154670981502978</v>
+        <v>0.01522252625539246</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02470859942216345</v>
+        <v>0.02409102757420306</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0776729299622195</v>
+        <v>0.08181065081945903</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06285786113414213</v>
+        <v>0.06180226850095884</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08749051174033178</v>
+        <v>0.08519431109630118</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05402530805822037</v>
+        <v>0.05275197345852903</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04372457604653077</v>
+        <v>0.04351064144192308</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0601766812822252</v>
+        <v>0.06152789649042892</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05663730092637526</v>
+        <v>0.05717423437474759</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04479363141803018</v>
+        <v>0.04506315008527091</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06156528838412537</v>
+        <v>0.06114184465274649</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1323914474572722</v>
+        <v>0.1362319715641351</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1115228487360651</v>
+        <v>0.1108866382024112</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1314134834392924</v>
+        <v>0.1314333710613358</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08804245045773683</v>
+        <v>0.0875921462380107</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07246801259295821</v>
+        <v>0.07300863359451738</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08916624386066622</v>
+        <v>0.09191290317234264</v>
       </c>
     </row>
     <row r="10">
@@ -882,7 +882,7 @@
         <v>0.03169096900458362</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.06117553344430462</v>
+        <v>0.0611755334443046</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01495893352597654</v>
+        <v>0.01527880358321621</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002921328746082616</v>
+        <v>0.002939768792462259</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0363316645571248</v>
+        <v>0.03567108944904157</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04078750861114862</v>
+        <v>0.04210398438353525</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02940991970770419</v>
+        <v>0.03232902369173322</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04616382593480917</v>
+        <v>0.04755345611289336</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03232739986079974</v>
+        <v>0.03284332798079755</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01943546981197196</v>
+        <v>0.02045618102341407</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04795132794446743</v>
+        <v>0.04853245143042025</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05153715615983789</v>
+        <v>0.05530408341947806</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0247837266906361</v>
+        <v>0.02462193824170184</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08409726354623309</v>
+        <v>0.0876807038387057</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09652589899213376</v>
+        <v>0.1003924698550308</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08149774785527125</v>
+        <v>0.08532317357150677</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08643265011628026</v>
+        <v>0.08782144018831348</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06556494266568291</v>
+        <v>0.06535613331438654</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04788271911962255</v>
+        <v>0.04893408858618245</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07849667190519057</v>
+        <v>0.07953002036611791</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.04606671154998945</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.08573793034074273</v>
+        <v>0.08573793034074274</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.04646407845082903</v>
@@ -991,7 +991,7 @@
         <v>0.03015163371723756</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.06743741866951196</v>
+        <v>0.06743741866951194</v>
       </c>
     </row>
     <row r="14">
@@ -1005,28 +1005,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.00506014785534198</v>
+        <v>0.005145895953297122</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02678913077440607</v>
+        <v>0.02568368880082654</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06036671267367845</v>
+        <v>0.06101804334121108</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02826607489879001</v>
+        <v>0.02717163833715892</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06533376580855654</v>
+        <v>0.06517378630894484</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03260880334607842</v>
+        <v>0.03313952139813557</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01845562314456172</v>
+        <v>0.01887296693027997</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05288942141563472</v>
+        <v>0.04997147205159034</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02051011075879596</v>
+        <v>0.02097571586464649</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03020552942820326</v>
+        <v>0.02870647191392018</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07727881634929065</v>
+        <v>0.08174290887686869</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1177869592844782</v>
+        <v>0.1229553019255007</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07003677884425298</v>
+        <v>0.06940402549597294</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1112829978562177</v>
+        <v>0.1127819688867101</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0643996987171437</v>
+        <v>0.06376921915701658</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04520437123045248</v>
+        <v>0.04526493745156759</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08715761631779191</v>
+        <v>0.08653102931544984</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.08255556140236016</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.0430322416051282</v>
+        <v>0.04303224160512821</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.09885152470791843</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01503095473217051</v>
+        <v>0.01358347337998704</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02650228732782688</v>
+        <v>0.02707625274685658</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.003945629477605332</v>
+        <v>0.002988918940280455</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1145747174696312</v>
+        <v>0.1103218305228237</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05314180328339036</v>
+        <v>0.05071844099087021</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02859685426745854</v>
+        <v>0.02733327821339938</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07319788732141637</v>
+        <v>0.0727783652143275</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04483635374032387</v>
+        <v>0.04583596550009072</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.018416818904244</v>
+        <v>0.01851806061637874</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06862196327457362</v>
+        <v>0.06501403486791299</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.085265799541393</v>
+        <v>0.09013529886877567</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0335770477741167</v>
+        <v>0.02750189703892894</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2167643546166308</v>
+        <v>0.2137255732060673</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.12697873283446</v>
+        <v>0.1271387716174241</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06421744623692004</v>
+        <v>0.06277710417931898</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1288892714246642</v>
+        <v>0.1323489323064586</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09159203616625154</v>
+        <v>0.09343080034320518</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04024146409457743</v>
+        <v>0.04021501154196084</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1200,7 @@
         <v>0.09843259059083219</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.07036929291086452</v>
+        <v>0.07036929291086449</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.05921072339271441</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01427155621446966</v>
+        <v>0.01753307444145037</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.002986457292295194</v>
+        <v>0.002978524576840478</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03353150956799541</v>
+        <v>0.03412099039833798</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.052277678890524</v>
+        <v>0.05542994357337594</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.06623889866109034</v>
+        <v>0.06641544090941379</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.04942460978813646</v>
+        <v>0.04953994719813337</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.04078367664227322</v>
+        <v>0.04300739130795431</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.03753303670877996</v>
+        <v>0.0380328181889736</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.04718796682652609</v>
+        <v>0.04669574264815443</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0580100597424048</v>
+        <v>0.06127092128209882</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02675425882791298</v>
+        <v>0.02597149974124268</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.08132067021255839</v>
+        <v>0.08224699044053933</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1188651788471222</v>
+        <v>0.1248022116807256</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1403371106694681</v>
+        <v>0.140571251775736</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.09702041586116633</v>
+        <v>0.09726643735022891</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.08058970428029581</v>
+        <v>0.08251119436606759</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.07688852526044793</v>
+        <v>0.08108687662969351</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.07945963204485698</v>
+        <v>0.07866508814562266</v>
       </c>
     </row>
     <row r="22">
@@ -1318,7 +1318,7 @@
         <v>0.02686748900368282</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.07805236133021276</v>
+        <v>0.07805236133021277</v>
       </c>
     </row>
     <row r="23">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01473034190424212</v>
+        <v>0.01491298164113278</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.003539400718854431</v>
+        <v>0.004361624106381356</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03351200176952447</v>
+        <v>0.03390509670964558</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04196917606830725</v>
+        <v>0.04219765484587358</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02589607645322936</v>
+        <v>0.02824975173863695</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.08602718485518918</v>
+        <v>0.08600693473540291</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03192847330107663</v>
+        <v>0.03093661308935435</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01791726470084854</v>
+        <v>0.0184866873360326</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.06403287257938908</v>
+        <v>0.06383458766394157</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04027304979767253</v>
+        <v>0.04080302500762732</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02379315193521025</v>
+        <v>0.02368400188021821</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.07134597169320336</v>
+        <v>0.07173896726876572</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07669492231645222</v>
+        <v>0.07962500655879329</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06128805620741144</v>
+        <v>0.06220373592240137</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1272210050034729</v>
+        <v>0.1258817559869342</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.05501273315541625</v>
+        <v>0.05416591123165728</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0384417618256298</v>
+        <v>0.03811926423902544</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0923989001025296</v>
+        <v>0.09275591564913367</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01060667364436753</v>
+        <v>0.01061534114566559</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01348533865291431</v>
+        <v>0.01401130827789675</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01801731898892179</v>
+        <v>0.0178971180280526</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.04506779689016196</v>
+        <v>0.0456198625903786</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04859486054199787</v>
+        <v>0.04806189195694659</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.05615125348170456</v>
+        <v>0.0549754334867813</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.03165274176554136</v>
+        <v>0.03129544650620004</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.03385204196819525</v>
+        <v>0.03431726620438319</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.04024063020422167</v>
+        <v>0.03938836273115187</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03172024994717014</v>
+        <v>0.03204994335801679</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03403041252748103</v>
+        <v>0.03432826681433924</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04140637640557832</v>
+        <v>0.04211218924032702</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.08073910755361266</v>
+        <v>0.08096014647606033</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.08569955870858333</v>
+        <v>0.08415158307085915</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.08543578822303648</v>
+        <v>0.0864726074178211</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.05201282160436088</v>
+        <v>0.05211627375433061</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.05554973506122583</v>
+        <v>0.05482662930033798</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.05968232532257568</v>
+        <v>0.05925212014113018</v>
       </c>
     </row>
     <row r="28">
@@ -1536,7 +1536,7 @@
         <v>0.04392742366477541</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.05977510998432212</v>
+        <v>0.05977510998432211</v>
       </c>
     </row>
     <row r="29">
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01945285199492841</v>
+        <v>0.01947544663696105</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.01549782183132276</v>
+        <v>0.01485617203978425</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.0321017034585543</v>
+        <v>0.03161114073685194</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.07179618805041722</v>
+        <v>0.07041097629132298</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.05859270296704545</v>
+        <v>0.05909291470979196</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.07273186518229634</v>
+        <v>0.07331544755997914</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.04761473759596537</v>
+        <v>0.04769256339643078</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.03925549998180625</v>
+        <v>0.03865526240186772</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.05487092139409511</v>
+        <v>0.05406320808633589</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.03039364984553857</v>
+        <v>0.0311453661706941</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.02514246988506556</v>
+        <v>0.02446672067256133</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.04552545949502023</v>
+        <v>0.04594478447260101</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.0898058673947862</v>
+        <v>0.08983063821945649</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.07750208701818941</v>
+        <v>0.07693728137728899</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.08782080933619643</v>
+        <v>0.08859724223886213</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.05873279286566738</v>
+        <v>0.0586856323841033</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.04902330229248265</v>
+        <v>0.04904863553321134</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.06543208960991158</v>
+        <v>0.06472113825583961</v>
       </c>
     </row>
     <row r="31">
@@ -1842,28 +1842,28 @@
         <v>4104</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3232</v>
+        <v>3403</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1664</v>
+        <v>1654</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>16823</v>
+        <v>18640</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>20171</v>
+        <v>21024</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>9217</v>
+        <v>9774</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>25683</v>
+        <v>24235</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>27421</v>
+        <v>27579</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>12470</v>
+        <v>13234</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>16647</v>
+        <v>16268</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15143</v>
+        <v>14845</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9879</v>
+        <v>9824</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>38305</v>
+        <v>39632</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>43451</v>
+        <v>43575</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>20096</v>
+        <v>20227</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>49080</v>
+        <v>48523</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>52586</v>
+        <v>52927</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>25325</v>
+        <v>25961</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8786</v>
+        <v>8256</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7773</v>
+        <v>7650</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13112</v>
+        <v>12784</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>40682</v>
+        <v>42850</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>32880</v>
+        <v>32328</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>47813</v>
+        <v>46558</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>55608</v>
+        <v>54297</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>44847</v>
+        <v>44627</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>64819</v>
+        <v>66274</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>28632</v>
+        <v>28903</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22512</v>
+        <v>22648</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>32669</v>
+        <v>32445</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>69342</v>
+        <v>71354</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>58336</v>
+        <v>58003</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>71817</v>
+        <v>71828</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>90621</v>
+        <v>90158</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>74327</v>
+        <v>74882</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>96045</v>
+        <v>99003</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4847</v>
+        <v>4951</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11481</v>
+        <v>11272</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13867</v>
+        <v>14315</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9891</v>
+        <v>10873</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>16452</v>
+        <v>16947</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>21466</v>
+        <v>21809</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>12728</v>
+        <v>13396</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>32241</v>
+        <v>32632</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16700</v>
+        <v>17921</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7895</v>
+        <v>7844</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>26574</v>
+        <v>27706</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>32817</v>
+        <v>34132</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>27408</v>
+        <v>28695</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>30803</v>
+        <v>31298</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>43537</v>
+        <v>43398</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>31357</v>
+        <v>32046</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>52779</v>
+        <v>53474</v>
       </c>
     </row>
     <row r="16">
@@ -2274,28 +2274,28 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1872</v>
+        <v>1904</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9996</v>
+        <v>9584</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>23249</v>
+        <v>23500</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>10947</v>
+        <v>10523</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>27568</v>
+        <v>27501</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>24754</v>
+        <v>25156</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>13975</v>
+        <v>14291</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>42053</v>
+        <v>39733</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7670</v>
+        <v>7845</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11175</v>
+        <v>10620</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>28836</v>
+        <v>30502</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>45363</v>
+        <v>47353</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>27124</v>
+        <v>26879</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>46957</v>
+        <v>47590</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>48886</v>
+        <v>48408</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>34231</v>
+        <v>34277</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>69300</v>
+        <v>68801</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3196</v>
+        <v>2888</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5598</v>
+        <v>5719</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>811</v>
+        <v>615</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>25160</v>
+        <v>24226</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>11616</v>
+        <v>11086</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>6546</v>
+        <v>6257</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>31637</v>
+        <v>31455</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>19271</v>
+        <v>19701</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>8004</v>
+        <v>8048</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14590</v>
+        <v>13823</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>18010</v>
+        <v>19038</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6906</v>
+        <v>5656</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>47600</v>
+        <v>46932</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>27756</v>
+        <v>27791</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>14701</v>
+        <v>14371</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>55707</v>
+        <v>57202</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>39367</v>
+        <v>40157</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>17488</v>
+        <v>17477</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3910</v>
+        <v>4804</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>9077</v>
+        <v>9237</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>14538</v>
+        <v>15415</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>18091</v>
+        <v>18139</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>13036</v>
+        <v>13066</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>22516</v>
+        <v>23743</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>20127</v>
+        <v>20395</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>25220</v>
+        <v>24957</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>15894</v>
+        <v>16787</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7040</v>
+        <v>6834</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>22014</v>
+        <v>22265</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>33056</v>
+        <v>34707</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>38328</v>
+        <v>38392</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>25589</v>
+        <v>25654</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>44492</v>
+        <v>45553</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>41231</v>
+        <v>43482</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>42468</v>
+        <v>42043</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>9763</v>
+        <v>9884</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2324</v>
+        <v>2864</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>24118</v>
+        <v>24401</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>29076</v>
+        <v>29235</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>17902</v>
+        <v>19529</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>66418</v>
+        <v>66402</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>43282</v>
+        <v>41937</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>24150</v>
+        <v>24917</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>95521</v>
+        <v>95225</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>26692</v>
+        <v>27044</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>15622</v>
+        <v>15550</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>51347</v>
+        <v>51630</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>53134</v>
+        <v>55164</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>42368</v>
+        <v>43001</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>98222</v>
+        <v>97188</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>74575</v>
+        <v>73427</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>51814</v>
+        <v>51379</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>137836</v>
+        <v>138368</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>8241</v>
+        <v>8248</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>10499</v>
+        <v>10909</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>14379</v>
+        <v>14283</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>37021</v>
+        <v>37474</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>40147</v>
+        <v>39707</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>46680</v>
+        <v>45703</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>50594</v>
+        <v>50023</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>54324</v>
+        <v>55071</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>65568</v>
+        <v>64180</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>24645</v>
+        <v>24901</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>26496</v>
+        <v>26727</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>33045</v>
+        <v>33609</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>66323</v>
+        <v>66505</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>70802</v>
+        <v>69523</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>71025</v>
+        <v>71887</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>83137</v>
+        <v>83303</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>89143</v>
+        <v>87983</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>97247</v>
+        <v>96546</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>66619</v>
+        <v>66696</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>52605</v>
+        <v>50427</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>113408</v>
+        <v>111675</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>254658</v>
+        <v>249745</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>207684</v>
+        <v>209457</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>271796</v>
+        <v>273976</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>331951</v>
+        <v>332493</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>272390</v>
+        <v>268225</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>398896</v>
+        <v>393024</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>104087</v>
+        <v>106661</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>85342</v>
+        <v>83049</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>160831</v>
+        <v>162312</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>318538</v>
+        <v>318626</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>274709</v>
+        <v>272707</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>328182</v>
+        <v>331084</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>409461</v>
+        <v>409132</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>340167</v>
+        <v>340343</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>475673</v>
+        <v>470504</v>
       </c>
     </row>
     <row r="40">
